--- a/Kovats_calculations_compounds.xlsx
+++ b/Kovats_calculations_compounds.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\Universitetet\PhD\Me\GitHub\Cirsium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hanna\Documents\Universitetet\PhD\GitHub\Cirsium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F254A89E-06CE-4804-9D80-6D89CC4E5E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEA074B-C59A-4111-9214-E7E004072D02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FB5FC1FD-7F52-4538-BFE7-3FB732A64E42}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="67">
   <si>
     <t>Copaene</t>
   </si>
@@ -225,6 +225,18 @@
   </si>
   <si>
     <t>Phenethyl benzoate</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C29</t>
   </si>
 </sst>
 </file>
@@ -268,10 +280,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,8 +601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5358F232-D4E0-4D8D-97F4-8C17AFB5133F}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,6 +674,48 @@
       <c r="B2" s="2">
         <v>530</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="2">
+        <v>481</v>
+      </c>
+      <c r="E2" s="2">
+        <v>800</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="2">
+        <v>644</v>
+      </c>
+      <c r="H2" s="2">
+        <v>900</v>
+      </c>
+      <c r="I2">
+        <f>G2-D2</f>
+        <v>163</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2" si="0">B2-D2</f>
+        <v>49</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2" si="1">J2/I2</f>
+        <v>0.30061349693251532</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ref="L2" si="2">H2-E2</f>
+        <v>100</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2" si="3">K2*L2</f>
+        <v>30.061349693251532</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ref="N2" si="4">E2+M2</f>
+        <v>830.06134969325149</v>
+      </c>
     </row>
     <row r="3" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -669,6 +724,48 @@
       <c r="B3" s="2">
         <v>599</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2">
+        <v>481</v>
+      </c>
+      <c r="E3" s="2">
+        <v>800</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2">
+        <v>644</v>
+      </c>
+      <c r="H3" s="2">
+        <v>900</v>
+      </c>
+      <c r="I3">
+        <f>G3-D3</f>
+        <v>163</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3" si="5">B3-D3</f>
+        <v>118</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3" si="6">J3/I3</f>
+        <v>0.7239263803680982</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3" si="7">H3-E3</f>
+        <v>100</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3" si="8">K3*L3</f>
+        <v>72.392638036809814</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3" si="9">E3+M3</f>
+        <v>872.39263803680979</v>
+      </c>
     </row>
     <row r="4" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -677,6 +774,48 @@
       <c r="B4" s="2">
         <v>674</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="2">
+        <v>481</v>
+      </c>
+      <c r="E4" s="2">
+        <v>800</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2">
+        <v>810</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I4">
+        <f>G4-D4</f>
+        <v>329</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4" si="10">B4-D4</f>
+        <v>193</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4" si="11">J4/I4</f>
+        <v>0.58662613981762923</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4" si="12">H4-E4</f>
+        <v>200</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4" si="13">K4*L4</f>
+        <v>117.32522796352585</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4" si="14">E4+M4</f>
+        <v>917.32522796352589</v>
+      </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -704,27 +843,27 @@
         <v>1513</v>
       </c>
       <c r="I5">
-        <f>G5-D5</f>
+        <f t="shared" ref="I5:I44" si="15">G5-D5</f>
         <v>394</v>
       </c>
       <c r="J5">
-        <f>B5-D5</f>
+        <f t="shared" ref="J5:J44" si="16">B5-D5</f>
         <v>26</v>
       </c>
       <c r="K5">
-        <f>J5/I5</f>
+        <f t="shared" ref="K5:K44" si="17">J5/I5</f>
         <v>6.5989847715736044E-2</v>
       </c>
       <c r="L5">
-        <f>H5-E5</f>
+        <f t="shared" ref="L5:L44" si="18">H5-E5</f>
         <v>270</v>
       </c>
       <c r="M5">
-        <f>K5*L5</f>
+        <f t="shared" ref="M5:M44" si="19">K5*L5</f>
         <v>17.817258883248734</v>
       </c>
       <c r="N5">
-        <f>E5+M5</f>
+        <f t="shared" ref="N5:N44" si="20">E5+M5</f>
         <v>1260.8172588832488</v>
       </c>
     </row>
@@ -754,27 +893,27 @@
         <v>1513</v>
       </c>
       <c r="I6">
-        <f>G6-D6</f>
+        <f t="shared" si="15"/>
         <v>368</v>
       </c>
       <c r="J6">
-        <f>B6-D6</f>
+        <f t="shared" si="16"/>
         <v>93</v>
       </c>
       <c r="K6">
-        <f>J6/I6</f>
+        <f t="shared" si="17"/>
         <v>0.25271739130434784</v>
       </c>
       <c r="L6">
-        <f>H6-E6</f>
+        <f t="shared" si="18"/>
         <v>253</v>
       </c>
       <c r="M6">
-        <f>K6*L6</f>
+        <f t="shared" si="19"/>
         <v>63.9375</v>
       </c>
       <c r="N6">
-        <f>E6+M6</f>
+        <f t="shared" si="20"/>
         <v>1323.9375</v>
       </c>
     </row>
@@ -804,27 +943,27 @@
         <v>1513</v>
       </c>
       <c r="I7">
-        <f>G7-D7</f>
+        <f t="shared" si="15"/>
         <v>368</v>
       </c>
       <c r="J7">
-        <f>B7-D7</f>
+        <f t="shared" si="16"/>
         <v>187</v>
       </c>
       <c r="K7">
-        <f>J7/I7</f>
+        <f t="shared" si="17"/>
         <v>0.50815217391304346</v>
       </c>
       <c r="L7">
-        <f>H7-E7</f>
+        <f t="shared" si="18"/>
         <v>253</v>
       </c>
       <c r="M7">
-        <f>K7*L7</f>
+        <f t="shared" si="19"/>
         <v>128.5625</v>
       </c>
       <c r="N7">
-        <f>E7+M7</f>
+        <f t="shared" si="20"/>
         <v>1388.5625</v>
       </c>
     </row>
@@ -854,27 +993,27 @@
         <v>1513</v>
       </c>
       <c r="I8">
-        <f>G8-D8</f>
+        <f t="shared" si="15"/>
         <v>368</v>
       </c>
       <c r="J8">
-        <f>B8-D8</f>
+        <f t="shared" si="16"/>
         <v>324</v>
       </c>
       <c r="K8">
-        <f>J8/I8</f>
+        <f t="shared" si="17"/>
         <v>0.88043478260869568</v>
       </c>
       <c r="L8">
-        <f>H8-E8</f>
+        <f t="shared" si="18"/>
         <v>253</v>
       </c>
       <c r="M8">
-        <f>K8*L8</f>
+        <f t="shared" si="19"/>
         <v>222.75</v>
       </c>
       <c r="N8">
-        <f>E8+M8</f>
+        <f t="shared" si="20"/>
         <v>1482.75</v>
       </c>
     </row>
@@ -904,27 +1043,27 @@
         <v>1513</v>
       </c>
       <c r="I9">
-        <f>G9-D9</f>
+        <f t="shared" si="15"/>
         <v>368</v>
       </c>
       <c r="J9">
-        <f>B9-D9</f>
+        <f t="shared" si="16"/>
         <v>336</v>
       </c>
       <c r="K9">
-        <f>J9/I9</f>
+        <f t="shared" si="17"/>
         <v>0.91304347826086951</v>
       </c>
       <c r="L9">
-        <f>H9-E9</f>
+        <f t="shared" si="18"/>
         <v>253</v>
       </c>
       <c r="M9">
-        <f>K9*L9</f>
+        <f t="shared" si="19"/>
         <v>231</v>
       </c>
       <c r="N9">
-        <f>E9+M9</f>
+        <f t="shared" si="20"/>
         <v>1491</v>
       </c>
     </row>
@@ -954,27 +1093,27 @@
         <v>1513</v>
       </c>
       <c r="I10">
-        <f>G10-D10</f>
+        <f t="shared" si="15"/>
         <v>368</v>
       </c>
       <c r="J10">
-        <f>B10-D10</f>
+        <f t="shared" si="16"/>
         <v>357</v>
       </c>
       <c r="K10">
-        <f>J10/I10</f>
+        <f t="shared" si="17"/>
         <v>0.97010869565217395</v>
       </c>
       <c r="L10">
-        <f>H10-E10</f>
+        <f t="shared" si="18"/>
         <v>253</v>
       </c>
       <c r="M10">
-        <f>K10*L10</f>
+        <f t="shared" si="19"/>
         <v>245.4375</v>
       </c>
       <c r="N10">
-        <f>E10+M10</f>
+        <f t="shared" si="20"/>
         <v>1505.4375</v>
       </c>
     </row>
@@ -1004,27 +1143,27 @@
         <v>1672</v>
       </c>
       <c r="I11">
-        <f>G11-D11</f>
+        <f t="shared" si="15"/>
         <v>584</v>
       </c>
       <c r="J11">
-        <f>B11-D11</f>
+        <f t="shared" si="16"/>
         <v>404</v>
       </c>
       <c r="K11">
-        <f>J11/I11</f>
+        <f t="shared" si="17"/>
         <v>0.69178082191780821</v>
       </c>
       <c r="L11">
-        <f>H11-E11</f>
+        <f t="shared" si="18"/>
         <v>412</v>
       </c>
       <c r="M11">
-        <f>K11*L11</f>
+        <f t="shared" si="19"/>
         <v>285.01369863013696</v>
       </c>
       <c r="N11">
-        <f>E11+M11</f>
+        <f t="shared" si="20"/>
         <v>1545.013698630137</v>
       </c>
     </row>
@@ -1054,27 +1193,27 @@
         <v>1672</v>
       </c>
       <c r="I12">
-        <f>G12-D12</f>
+        <f t="shared" si="15"/>
         <v>584</v>
       </c>
       <c r="J12">
-        <f>B12-D12</f>
+        <f t="shared" si="16"/>
         <v>413</v>
       </c>
       <c r="K12">
-        <f>J12/I12</f>
+        <f t="shared" si="17"/>
         <v>0.7071917808219178</v>
       </c>
       <c r="L12">
-        <f>H12-E12</f>
+        <f t="shared" si="18"/>
         <v>412</v>
       </c>
       <c r="M12">
-        <f>K12*L12</f>
+        <f t="shared" si="19"/>
         <v>291.36301369863014</v>
       </c>
       <c r="N12">
-        <f>E12+M12</f>
+        <f t="shared" si="20"/>
         <v>1551.3630136986301</v>
       </c>
     </row>
@@ -1104,27 +1243,27 @@
         <v>1673</v>
       </c>
       <c r="I13">
-        <f>G13-D13</f>
+        <f t="shared" si="15"/>
         <v>584</v>
       </c>
       <c r="J13">
-        <f>B13-D13</f>
+        <f t="shared" si="16"/>
         <v>460</v>
       </c>
       <c r="K13">
-        <f>J13/I13</f>
+        <f t="shared" si="17"/>
         <v>0.78767123287671237</v>
       </c>
       <c r="L13">
-        <f>H13-E13</f>
+        <f t="shared" si="18"/>
         <v>413</v>
       </c>
       <c r="M13">
-        <f>K13*L13</f>
+        <f t="shared" si="19"/>
         <v>325.3082191780822</v>
       </c>
       <c r="N13">
-        <f>E13+M13</f>
+        <f t="shared" si="20"/>
         <v>1585.3082191780823</v>
       </c>
     </row>
@@ -1154,27 +1293,27 @@
         <v>1673</v>
       </c>
       <c r="I14">
-        <f>G14-D14</f>
+        <f t="shared" si="15"/>
         <v>584</v>
       </c>
       <c r="J14">
-        <f>B14-D14</f>
+        <f t="shared" si="16"/>
         <v>472</v>
       </c>
       <c r="K14">
-        <f>J14/I14</f>
+        <f t="shared" si="17"/>
         <v>0.80821917808219179</v>
       </c>
       <c r="L14">
-        <f>H14-E14</f>
+        <f t="shared" si="18"/>
         <v>413</v>
       </c>
       <c r="M14">
-        <f>K14*L14</f>
+        <f t="shared" si="19"/>
         <v>333.79452054794518</v>
       </c>
       <c r="N14">
-        <f>E14+M14</f>
+        <f t="shared" si="20"/>
         <v>1593.7945205479452</v>
       </c>
     </row>
@@ -1204,27 +1343,27 @@
         <v>1673</v>
       </c>
       <c r="I15">
-        <f>G15-D15</f>
+        <f t="shared" si="15"/>
         <v>584</v>
       </c>
       <c r="J15">
-        <f>B15-D15</f>
+        <f t="shared" si="16"/>
         <v>487</v>
       </c>
       <c r="K15">
-        <f>J15/I15</f>
+        <f t="shared" si="17"/>
         <v>0.83390410958904104</v>
       </c>
       <c r="L15">
-        <f>H15-E15</f>
+        <f t="shared" si="18"/>
         <v>413</v>
       </c>
       <c r="M15">
-        <f>K15*L15</f>
+        <f t="shared" si="19"/>
         <v>344.40239726027397</v>
       </c>
       <c r="N15">
-        <f>E15+M15</f>
+        <f t="shared" si="20"/>
         <v>1604.402397260274</v>
       </c>
       <c r="T15" s="1"/>
@@ -1257,27 +1396,27 @@
         <v>1673</v>
       </c>
       <c r="I16">
-        <f>G16-D16</f>
+        <f t="shared" si="15"/>
         <v>584</v>
       </c>
       <c r="J16">
-        <f>B16-D16</f>
+        <f t="shared" si="16"/>
         <v>507</v>
       </c>
       <c r="K16">
-        <f>J16/I16</f>
+        <f t="shared" si="17"/>
         <v>0.86815068493150682</v>
       </c>
       <c r="L16">
-        <f>H16-E16</f>
+        <f t="shared" si="18"/>
         <v>413</v>
       </c>
       <c r="M16">
-        <f>K16*L16</f>
+        <f t="shared" si="19"/>
         <v>358.54623287671234</v>
       </c>
       <c r="N16">
-        <f>E16+M16</f>
+        <f t="shared" si="20"/>
         <v>1618.5462328767123</v>
       </c>
     </row>
@@ -1307,27 +1446,27 @@
         <v>1673</v>
       </c>
       <c r="I17">
-        <f>G17-D17</f>
+        <f t="shared" si="15"/>
         <v>584</v>
       </c>
       <c r="J17">
-        <f>B17-D17</f>
+        <f t="shared" si="16"/>
         <v>557</v>
       </c>
       <c r="K17">
-        <f>J17/I17</f>
+        <f t="shared" si="17"/>
         <v>0.95376712328767121</v>
       </c>
       <c r="L17">
-        <f>H17-E17</f>
+        <f t="shared" si="18"/>
         <v>413</v>
       </c>
       <c r="M17">
-        <f>K17*L17</f>
+        <f t="shared" si="19"/>
         <v>393.90582191780823</v>
       </c>
       <c r="N17">
-        <f>E17+M17</f>
+        <f t="shared" si="20"/>
         <v>1653.9058219178082</v>
       </c>
     </row>
@@ -1357,27 +1496,27 @@
         <v>1673</v>
       </c>
       <c r="I18">
-        <f>G18-D18</f>
+        <f t="shared" si="15"/>
         <v>584</v>
       </c>
       <c r="J18">
-        <f>B18-D18</f>
+        <f t="shared" si="16"/>
         <v>573</v>
       </c>
       <c r="K18">
-        <f>J18/I18</f>
+        <f t="shared" si="17"/>
         <v>0.98116438356164382</v>
       </c>
       <c r="L18">
-        <f>H18-E18</f>
+        <f t="shared" si="18"/>
         <v>413</v>
       </c>
       <c r="M18">
-        <f>K18*L18</f>
+        <f t="shared" si="19"/>
         <v>405.22089041095887</v>
       </c>
       <c r="N18">
-        <f>E18+M18</f>
+        <f t="shared" si="20"/>
         <v>1665.2208904109589</v>
       </c>
     </row>
@@ -1407,27 +1546,27 @@
         <v>1773</v>
       </c>
       <c r="I19">
-        <f>G19-D19</f>
+        <f t="shared" si="15"/>
         <v>675</v>
       </c>
       <c r="J19">
-        <f>B19-D19</f>
+        <f t="shared" si="16"/>
         <v>593</v>
       </c>
       <c r="K19">
-        <f>J19/I19</f>
+        <f t="shared" si="17"/>
         <v>0.87851851851851848</v>
       </c>
       <c r="L19">
-        <f>H19-E19</f>
+        <f t="shared" si="18"/>
         <v>513</v>
       </c>
       <c r="M19">
-        <f>K19*L19</f>
+        <f t="shared" si="19"/>
         <v>450.67999999999995</v>
       </c>
       <c r="N19">
-        <f>E19+M19</f>
+        <f t="shared" si="20"/>
         <v>1710.6799999999998</v>
       </c>
     </row>
@@ -1457,27 +1596,27 @@
         <v>1773</v>
       </c>
       <c r="I20">
-        <f>G20-D20</f>
+        <f t="shared" si="15"/>
         <v>675</v>
       </c>
       <c r="J20">
-        <f>B20-D20</f>
+        <f t="shared" si="16"/>
         <v>618</v>
       </c>
       <c r="K20">
-        <f>J20/I20</f>
+        <f t="shared" si="17"/>
         <v>0.91555555555555557</v>
       </c>
       <c r="L20">
-        <f>H20-E20</f>
+        <f t="shared" si="18"/>
         <v>513</v>
       </c>
       <c r="M20">
-        <f>K20*L20</f>
+        <f t="shared" si="19"/>
         <v>469.68</v>
       </c>
       <c r="N20">
-        <f>E20+M20</f>
+        <f t="shared" si="20"/>
         <v>1729.68</v>
       </c>
     </row>
@@ -1507,27 +1646,27 @@
         <v>1773</v>
       </c>
       <c r="I21">
-        <f>G21-D21</f>
+        <f t="shared" si="15"/>
         <v>675</v>
       </c>
       <c r="J21">
-        <f>B21-D21</f>
+        <f t="shared" si="16"/>
         <v>622</v>
       </c>
       <c r="K21">
-        <f>J21/I21</f>
+        <f t="shared" si="17"/>
         <v>0.92148148148148146</v>
       </c>
       <c r="L21">
-        <f>H21-E21</f>
+        <f t="shared" si="18"/>
         <v>513</v>
       </c>
       <c r="M21">
-        <f>K21*L21</f>
+        <f t="shared" si="19"/>
         <v>472.71999999999997</v>
       </c>
       <c r="N21">
-        <f>E21+M21</f>
+        <f t="shared" si="20"/>
         <v>1732.72</v>
       </c>
     </row>
@@ -1557,27 +1696,27 @@
         <v>1773</v>
       </c>
       <c r="I22">
-        <f>G22-D22</f>
+        <f t="shared" si="15"/>
         <v>675</v>
       </c>
       <c r="J22">
-        <f>B22-D22</f>
+        <f t="shared" si="16"/>
         <v>627</v>
       </c>
       <c r="K22">
-        <f>J22/I22</f>
+        <f t="shared" si="17"/>
         <v>0.92888888888888888</v>
       </c>
       <c r="L22">
-        <f>H22-E22</f>
+        <f t="shared" si="18"/>
         <v>513</v>
       </c>
       <c r="M22">
-        <f>K22*L22</f>
+        <f t="shared" si="19"/>
         <v>476.52</v>
       </c>
       <c r="N22">
-        <f>E22+M22</f>
+        <f t="shared" si="20"/>
         <v>1736.52</v>
       </c>
     </row>
@@ -1607,27 +1746,27 @@
         <v>1773</v>
       </c>
       <c r="I23">
-        <f>G23-D23</f>
+        <f t="shared" si="15"/>
         <v>675</v>
       </c>
       <c r="J23">
-        <f>B23-D23</f>
+        <f t="shared" si="16"/>
         <v>632</v>
       </c>
       <c r="K23">
-        <f>J23/I23</f>
+        <f t="shared" si="17"/>
         <v>0.93629629629629629</v>
       </c>
       <c r="L23">
-        <f>H23-E23</f>
+        <f t="shared" si="18"/>
         <v>513</v>
       </c>
       <c r="M23">
-        <f>K23*L23</f>
+        <f t="shared" si="19"/>
         <v>480.32</v>
       </c>
       <c r="N23">
-        <f>E23+M23</f>
+        <f t="shared" si="20"/>
         <v>1740.32</v>
       </c>
     </row>
@@ -1657,27 +1796,27 @@
         <v>1773</v>
       </c>
       <c r="I24">
-        <f>G24-D24</f>
+        <f t="shared" si="15"/>
         <v>675</v>
       </c>
       <c r="J24">
-        <f>B24-D24</f>
+        <f t="shared" si="16"/>
         <v>646</v>
       </c>
       <c r="K24">
-        <f>J24/I24</f>
+        <f t="shared" si="17"/>
         <v>0.95703703703703702</v>
       </c>
       <c r="L24">
-        <f>H24-E24</f>
+        <f t="shared" si="18"/>
         <v>513</v>
       </c>
       <c r="M24">
-        <f>K24*L24</f>
+        <f t="shared" si="19"/>
         <v>490.96</v>
       </c>
       <c r="N24">
-        <f>E24+M24</f>
+        <f t="shared" si="20"/>
         <v>1750.96</v>
       </c>
       <c r="T24" s="1"/>
@@ -1709,27 +1848,27 @@
         <v>1773</v>
       </c>
       <c r="I25">
-        <f>G25-D25</f>
+        <f t="shared" si="15"/>
         <v>675</v>
       </c>
       <c r="J25">
-        <f>B25-D25</f>
+        <f t="shared" si="16"/>
         <v>652</v>
       </c>
       <c r="K25">
-        <f>J25/I25</f>
+        <f t="shared" si="17"/>
         <v>0.96592592592592597</v>
       </c>
       <c r="L25">
-        <f>H25-E25</f>
+        <f t="shared" si="18"/>
         <v>513</v>
       </c>
       <c r="M25">
-        <f>K25*L25</f>
+        <f t="shared" si="19"/>
         <v>495.52000000000004</v>
       </c>
       <c r="N25">
-        <f>E25+M25</f>
+        <f t="shared" si="20"/>
         <v>1755.52</v>
       </c>
     </row>
@@ -1759,27 +1898,27 @@
         <v>1924</v>
       </c>
       <c r="I26">
-        <f>G26-D26</f>
+        <f t="shared" si="15"/>
         <v>142</v>
       </c>
       <c r="J26">
-        <f>B26-D26</f>
+        <f t="shared" si="16"/>
         <v>17</v>
       </c>
       <c r="K26">
-        <f>J26/I26</f>
+        <f t="shared" si="17"/>
         <v>0.11971830985915492</v>
       </c>
       <c r="L26">
-        <f>H26-E26</f>
+        <f t="shared" si="18"/>
         <v>151</v>
       </c>
       <c r="M26">
-        <f>K26*L26</f>
+        <f t="shared" si="19"/>
         <v>18.077464788732392</v>
       </c>
       <c r="N26">
-        <f>E26+M26</f>
+        <f t="shared" si="20"/>
         <v>1791.0774647887324</v>
       </c>
     </row>
@@ -1809,27 +1948,27 @@
         <v>1924</v>
       </c>
       <c r="I27">
-        <f>G27-D27</f>
+        <f t="shared" si="15"/>
         <v>142</v>
       </c>
       <c r="J27">
-        <f>B27-D27</f>
+        <f t="shared" si="16"/>
         <v>43</v>
       </c>
       <c r="K27">
-        <f>J27/I27</f>
+        <f t="shared" si="17"/>
         <v>0.30281690140845069</v>
       </c>
       <c r="L27">
-        <f>H27-E27</f>
+        <f t="shared" si="18"/>
         <v>151</v>
       </c>
       <c r="M27">
-        <f>K27*L27</f>
+        <f t="shared" si="19"/>
         <v>45.725352112676056</v>
       </c>
       <c r="N27">
-        <f>E27+M27</f>
+        <f t="shared" si="20"/>
         <v>1818.7253521126761</v>
       </c>
     </row>
@@ -1859,27 +1998,27 @@
         <v>1924</v>
       </c>
       <c r="I28">
-        <f>G28-D28</f>
+        <f t="shared" si="15"/>
         <v>142</v>
       </c>
       <c r="J28">
-        <f>B28-D28</f>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="K28">
-        <f>J28/I28</f>
+        <f t="shared" si="17"/>
         <v>0.42253521126760563</v>
       </c>
       <c r="L28">
-        <f>H28-E28</f>
+        <f t="shared" si="18"/>
         <v>151</v>
       </c>
       <c r="M28">
-        <f>K28*L28</f>
+        <f t="shared" si="19"/>
         <v>63.802816901408448</v>
       </c>
       <c r="N28">
-        <f>E28+M28</f>
+        <f t="shared" si="20"/>
         <v>1836.8028169014085</v>
       </c>
     </row>
@@ -1909,27 +2048,27 @@
         <v>1924</v>
       </c>
       <c r="I29">
-        <f>G29-D29</f>
+        <f t="shared" si="15"/>
         <v>142</v>
       </c>
       <c r="J29">
-        <f>B29-D29</f>
+        <f t="shared" si="16"/>
         <v>102</v>
       </c>
       <c r="K29">
-        <f>J29/I29</f>
+        <f t="shared" si="17"/>
         <v>0.71830985915492962</v>
       </c>
       <c r="L29">
-        <f>H29-E29</f>
+        <f t="shared" si="18"/>
         <v>151</v>
       </c>
       <c r="M29">
-        <f>K29*L29</f>
+        <f t="shared" si="19"/>
         <v>108.46478873239437</v>
       </c>
       <c r="N29">
-        <f>E29+M29</f>
+        <f t="shared" si="20"/>
         <v>1881.4647887323945</v>
       </c>
     </row>
@@ -1959,27 +2098,27 @@
         <v>1924</v>
       </c>
       <c r="I30">
-        <f>G30-D30</f>
+        <f t="shared" si="15"/>
         <v>142</v>
       </c>
       <c r="J30">
-        <f>B30-D30</f>
+        <f t="shared" si="16"/>
         <v>129</v>
       </c>
       <c r="K30">
-        <f>J30/I30</f>
+        <f t="shared" si="17"/>
         <v>0.90845070422535212</v>
       </c>
       <c r="L30">
-        <f>H30-E30</f>
+        <f t="shared" si="18"/>
         <v>151</v>
       </c>
       <c r="M30">
-        <f>K30*L30</f>
+        <f t="shared" si="19"/>
         <v>137.17605633802816</v>
       </c>
       <c r="N30">
-        <f>E30+M30</f>
+        <f t="shared" si="20"/>
         <v>1910.176056338028</v>
       </c>
     </row>
@@ -2009,27 +2148,27 @@
         <v>2588</v>
       </c>
       <c r="I31">
-        <f>G31-D31</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J31">
-        <f>B31-D31</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="K31">
-        <f>J31/I31</f>
+        <f t="shared" si="17"/>
         <v>1.8154311649016642E-2</v>
       </c>
       <c r="L31">
-        <f>H31-E31</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M31">
-        <f>K31*L31</f>
+        <f t="shared" si="19"/>
         <v>12.05446293494705</v>
       </c>
       <c r="N31">
-        <f>E31+M31</f>
+        <f t="shared" si="20"/>
         <v>1936.054462934947</v>
       </c>
     </row>
@@ -2059,27 +2198,27 @@
         <v>2588</v>
       </c>
       <c r="I32">
-        <f>G32-D32</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J32">
-        <f>B32-D32</f>
+        <f t="shared" si="16"/>
         <v>38</v>
       </c>
       <c r="K32">
-        <f>J32/I32</f>
+        <f t="shared" si="17"/>
         <v>5.7488653555219364E-2</v>
       </c>
       <c r="L32">
-        <f>H32-E32</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M32">
-        <f>K32*L32</f>
+        <f t="shared" si="19"/>
         <v>38.172465960665654</v>
       </c>
       <c r="N32">
-        <f>E32+M32</f>
+        <f t="shared" si="20"/>
         <v>1962.1724659606657</v>
       </c>
       <c r="T32" s="1"/>
@@ -2111,27 +2250,27 @@
         <v>2588</v>
       </c>
       <c r="I33">
-        <f>G33-D33</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J33">
-        <f>B33-D33</f>
+        <f t="shared" si="16"/>
         <v>48</v>
       </c>
       <c r="K33">
-        <f>J33/I33</f>
+        <f t="shared" si="17"/>
         <v>7.2617246596066568E-2</v>
       </c>
       <c r="L33">
-        <f>H33-E33</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M33">
-        <f>K33*L33</f>
+        <f t="shared" si="19"/>
         <v>48.217851739788202</v>
       </c>
       <c r="N33">
-        <f>E33+M33</f>
+        <f t="shared" si="20"/>
         <v>1972.2178517397881</v>
       </c>
     </row>
@@ -2161,27 +2300,27 @@
         <v>2588</v>
       </c>
       <c r="I34">
-        <f>G34-D34</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J34">
-        <f>B34-D34</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="K34">
-        <f>J34/I34</f>
+        <f t="shared" si="17"/>
         <v>0.15128593040847202</v>
       </c>
       <c r="L34">
-        <f>H34-E34</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M34">
-        <f>K34*L34</f>
+        <f t="shared" si="19"/>
         <v>100.45385779122542</v>
       </c>
       <c r="N34">
-        <f>E34+M34</f>
+        <f t="shared" si="20"/>
         <v>2024.4538577912253</v>
       </c>
     </row>
@@ -2211,27 +2350,27 @@
         <v>2588</v>
       </c>
       <c r="I35">
-        <f>G35-D35</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J35">
-        <f>B35-D35</f>
+        <f t="shared" si="16"/>
         <v>120</v>
       </c>
       <c r="K35">
-        <f>J35/I35</f>
+        <f t="shared" si="17"/>
         <v>0.18154311649016641</v>
       </c>
       <c r="L35">
-        <f>H35-E35</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M35">
-        <f>K35*L35</f>
+        <f t="shared" si="19"/>
         <v>120.5446293494705</v>
       </c>
       <c r="N35">
-        <f>E35+M35</f>
+        <f t="shared" si="20"/>
         <v>2044.5446293494706</v>
       </c>
     </row>
@@ -2261,27 +2400,27 @@
         <v>2588</v>
       </c>
       <c r="I36">
-        <f>G36-D36</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J36">
-        <f>B36-D36</f>
+        <f t="shared" si="16"/>
         <v>138</v>
       </c>
       <c r="K36">
-        <f>J36/I36</f>
+        <f t="shared" si="17"/>
         <v>0.20877458396369139</v>
       </c>
       <c r="L36">
-        <f>H36-E36</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M36">
-        <f>K36*L36</f>
+        <f t="shared" si="19"/>
         <v>138.62632375189108</v>
       </c>
       <c r="N36">
-        <f>E36+M36</f>
+        <f t="shared" si="20"/>
         <v>2062.6263237518911</v>
       </c>
     </row>
@@ -2311,27 +2450,27 @@
         <v>2588</v>
       </c>
       <c r="I37">
-        <f>G37-D37</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J37">
-        <f>B37-D37</f>
+        <f t="shared" si="16"/>
         <v>208</v>
       </c>
       <c r="K37">
-        <f>J37/I37</f>
+        <f t="shared" si="17"/>
         <v>0.31467473524962181</v>
       </c>
       <c r="L37">
-        <f>H37-E37</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M37">
-        <f>K37*L37</f>
+        <f t="shared" si="19"/>
         <v>208.94402420574889</v>
       </c>
       <c r="N37">
-        <f>E37+M37</f>
+        <f t="shared" si="20"/>
         <v>2132.944024205749</v>
       </c>
     </row>
@@ -2361,27 +2500,27 @@
         <v>2588</v>
       </c>
       <c r="I38">
-        <f>G38-D38</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J38">
-        <f>B38-D38</f>
+        <f t="shared" si="16"/>
         <v>225</v>
       </c>
       <c r="K38">
-        <f>J38/I38</f>
+        <f t="shared" si="17"/>
         <v>0.34039334341906202</v>
       </c>
       <c r="L38">
-        <f>H38-E38</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M38">
-        <f>K38*L38</f>
+        <f t="shared" si="19"/>
         <v>226.02118003025717</v>
       </c>
       <c r="N38">
-        <f>E38+M38</f>
+        <f t="shared" si="20"/>
         <v>2150.0211800302573</v>
       </c>
     </row>
@@ -2411,27 +2550,27 @@
         <v>2588</v>
       </c>
       <c r="I39">
-        <f>G39-D39</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J39">
-        <f>B39-D39</f>
+        <f t="shared" si="16"/>
         <v>243</v>
       </c>
       <c r="K39">
-        <f>J39/I39</f>
+        <f t="shared" si="17"/>
         <v>0.36762481089258697</v>
       </c>
       <c r="L39">
-        <f>H39-E39</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M39">
-        <f>K39*L39</f>
+        <f t="shared" si="19"/>
         <v>244.10287443267774</v>
       </c>
       <c r="N39">
-        <f>E39+M39</f>
+        <f t="shared" si="20"/>
         <v>2168.1028744326777</v>
       </c>
     </row>
@@ -2461,27 +2600,27 @@
         <v>2588</v>
       </c>
       <c r="I40">
-        <f>G40-D40</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J40">
-        <f>B40-D40</f>
+        <f t="shared" si="16"/>
         <v>253</v>
       </c>
       <c r="K40">
-        <f>J40/I40</f>
+        <f t="shared" si="17"/>
         <v>0.38275340393343421</v>
       </c>
       <c r="L40">
-        <f>H40-E40</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M40">
-        <f>K40*L40</f>
+        <f t="shared" si="19"/>
         <v>254.14826021180031</v>
       </c>
       <c r="N40">
-        <f>E40+M40</f>
+        <f t="shared" si="20"/>
         <v>2178.1482602118003</v>
       </c>
       <c r="X40" s="1"/>
@@ -2512,27 +2651,27 @@
         <v>2588</v>
       </c>
       <c r="I41">
-        <f>G41-D41</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J41">
-        <f>B41-D41</f>
+        <f t="shared" si="16"/>
         <v>351</v>
       </c>
       <c r="K41">
-        <f>J41/I41</f>
+        <f t="shared" si="17"/>
         <v>0.53101361573373673</v>
       </c>
       <c r="L41">
-        <f>H41-E41</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M41">
-        <f>K41*L41</f>
+        <f t="shared" si="19"/>
         <v>352.59304084720117</v>
       </c>
       <c r="N41">
-        <f>E41+M41</f>
+        <f t="shared" si="20"/>
         <v>2276.5930408472013</v>
       </c>
     </row>
@@ -2562,27 +2701,27 @@
         <v>2588</v>
       </c>
       <c r="I42">
-        <f>G42-D42</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J42">
-        <f>B42-D42</f>
+        <f t="shared" si="16"/>
         <v>360</v>
       </c>
       <c r="K42">
-        <f>J42/I42</f>
+        <f t="shared" si="17"/>
         <v>0.54462934947049924</v>
       </c>
       <c r="L42">
-        <f>H42-E42</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M42">
-        <f>K42*L42</f>
+        <f t="shared" si="19"/>
         <v>361.63388804841151</v>
       </c>
       <c r="N42">
-        <f>E42+M42</f>
+        <f t="shared" si="20"/>
         <v>2285.6338880484113</v>
       </c>
     </row>
@@ -2612,36 +2751,78 @@
         <v>2588</v>
       </c>
       <c r="I43">
-        <f>G43-D43</f>
+        <f t="shared" si="15"/>
         <v>661</v>
       </c>
       <c r="J43">
-        <f>B43-D43</f>
+        <f t="shared" si="16"/>
         <v>541</v>
       </c>
       <c r="K43">
-        <f>J43/I43</f>
+        <f t="shared" si="17"/>
         <v>0.81845688350983359</v>
       </c>
       <c r="L43">
-        <f>H43-E43</f>
+        <f t="shared" si="18"/>
         <v>664</v>
       </c>
       <c r="M43">
-        <f>K43*L43</f>
+        <f t="shared" si="19"/>
         <v>543.45537065052952</v>
       </c>
       <c r="N43">
-        <f>E43+M43</f>
+        <f t="shared" si="20"/>
         <v>2467.4553706505294</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="44" spans="1:24" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="3">
         <v>2282</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D44" s="3">
+        <v>2211</v>
+      </c>
+      <c r="E44" s="3">
+        <v>2588</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G44" s="3">
+        <v>2816</v>
+      </c>
+      <c r="H44" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="15"/>
+        <v>605</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="16"/>
+        <v>71</v>
+      </c>
+      <c r="K44" s="3">
+        <f t="shared" si="17"/>
+        <v>0.11735537190082644</v>
+      </c>
+      <c r="L44" s="3">
+        <f t="shared" si="18"/>
+        <v>312</v>
+      </c>
+      <c r="M44" s="3">
+        <f t="shared" si="19"/>
+        <v>36.614876033057847</v>
+      </c>
+      <c r="N44" s="3">
+        <f t="shared" si="20"/>
+        <v>2624.614876033058</v>
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.35">
